--- a/point_disorder_paper/figures - Copy/sensitivity1.xlsx
+++ b/point_disorder_paper/figures - Copy/sensitivity1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C970C5-EBE4-4625-82F4-4CDEC17EC6AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A802AA-250A-4FB2-874F-C26155425FA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14760" yWindow="1470" windowWidth="13170" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sensitivity" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
